--- a/2025/11/2025-11-03/03_olbg_fixtures.xlsx
+++ b/2025/11/2025-11-03/03_olbg_fixtures.xlsx
@@ -1011,12 +1011,12 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>3/3 Win Tips</t>
+          <t>3/4 Win Tips</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>75</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
@@ -1058,7 +1058,7 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>12.00</t>
+          <t>2.25</t>
         </is>
       </c>
     </row>
